--- a/biology/Médecine/1611_en_santé_et_médecine/1611_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1611_en_santé_et_médecine/1611_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1611_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1611_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1611 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1611_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1611_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Dans l'affaire des possessions d'Aix-en-Provence, ce sont les médecins Antoine Mérindol (en) (1570-1624), Louis Grassy et Jacques Fontaine († 1621[1] ?) et le chirurgien anatomiste Pierre Bontemps, qui sont chargés d'examiner la victime et l'accusé[2].
-1611-1613 : « Il y [a] dans le terroir d'Arles une si grande quantité de sauterelles qu'elles obscurciss[ent] le soleil[3]. »</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Dans l'affaire des possessions d'Aix-en-Provence, ce sont les médecins Antoine Mérindol (en) (1570-1624), Louis Grassy et Jacques Fontaine († 1621 ?) et le chirurgien anatomiste Pierre Bontemps, qui sont chargés d'examiner la victime et l'accusé.
+1611-1613 : « Il y [a] dans le terroir d'Arles une si grande quantité de sauterelles qu'elles obscurciss[ent] le soleil. »</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1611_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1611_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,13 +556,15 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Caspar Bartholin le Vieux (1585-1629) publie ses Anatomicae institutiones corporis humani (« Éléments d'anatomie humaine »), premier manuel d'anatomie décrivant les trajets du nerf olfactif[4].
-Dans son ouvrage intitulé Des marques des sorciers et de la réelle possession que le diable prend sur le corps des hommes, Jacques Fontaine, professeur de médecine à Aix et médecin ordinaire du roi[1] († 1621 ?) rend compte de l'affaire des possédés d'Aix-en Provence[2].
-Parution posthume du traité d'anatomie (De anatome corporis humani) de Guido Guidi (1509-1569[5]).
-Epifanio Ferdinando (1659-1638) fait paraître ses Theoremata medica et philosophica[6].
-Tannequin Guillaumet (c. 1548 – 1628), « chirurgien paracelsien de Nîmes », fait paraître à Lyon, chez Pierre Rigaud, son Traicté de la maladie nouvellement appelée cristaline[7], son Livre xenodocal[8] et son Traité des ouvertures[9].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Caspar Bartholin le Vieux (1585-1629) publie ses Anatomicae institutiones corporis humani (« Éléments d'anatomie humaine »), premier manuel d'anatomie décrivant les trajets du nerf olfactif.
+Dans son ouvrage intitulé Des marques des sorciers et de la réelle possession que le diable prend sur le corps des hommes, Jacques Fontaine, professeur de médecine à Aix et médecin ordinaire du roi († 1621 ?) rend compte de l'affaire des possédés d'Aix-en Provence.
+Parution posthume du traité d'anatomie (De anatome corporis humani) de Guido Guidi (1509-1569).
+Epifanio Ferdinando (1659-1638) fait paraître ses Theoremata medica et philosophica.
+Tannequin Guillaumet (c. 1548 – 1628), « chirurgien paracelsien de Nîmes », fait paraître à Lyon, chez Pierre Rigaud, son Traicté de la maladie nouvellement appelée cristaline, son Livre xenodocal et son Traité des ouvertures.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1611_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1611_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,10 +592,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 avril : Orazio Guarguanti (it) (né en 1554), médecin et homme de lettres italien[10],[11].
-1611 ou 1612 : John Gerard (né en 1545), médecin et botaniste anglais[12].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18 avril : Orazio Guarguanti (it) (né en 1554), médecin et homme de lettres italien,.
+1611 ou 1612 : John Gerard (né en 1545), médecin et botaniste anglais.
 </t>
         </is>
       </c>
